--- a/tools/sensitiveFliter/data/configex_result.xlsx
+++ b/tools/sensitiveFliter/data/configex_result.xlsx
@@ -339,24 +339,24 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="str">
-        <v>逼</v>
+        <v>屄</v>
       </c>
       <c r="C1" t="str">
         <v>1</v>
       </c>
       <c r="E1" t="str">
-        <v>逼</v>
+        <v>屄</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>尻</v>
+        <v>铀</v>
       </c>
       <c r="C2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>尻</v>
+        <v>铀</v>
       </c>
     </row>
     <row r="3">
@@ -383,24 +383,24 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>屄</v>
+        <v>逼</v>
       </c>
       <c r="C5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>屄</v>
+        <v>逼</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>铀</v>
+        <v>尻</v>
       </c>
       <c r="C6" t="str">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>铀</v>
+        <v>尻</v>
       </c>
     </row>
     <row r="7">
